--- a/data-raw/iyer.wheat.xlsx
+++ b/data-raw/iyer.wheat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC93D91-C9B8-433A-87C6-9A418A9132AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="13368" windowHeight="7644" activeTab="2"/>
+    <workbookView xWindow="2180" yWindow="1140" windowWidth="7590" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,16 +382,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>17.5</v>
       </c>
@@ -452,7 +453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>16.5</v>
       </c>
@@ -514,7 +515,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>13</v>
       </c>
@@ -576,7 +577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>14</v>
       </c>
@@ -638,7 +639,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15</v>
       </c>
@@ -700,7 +701,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>15</v>
       </c>
@@ -762,7 +763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>14.5</v>
       </c>
@@ -824,7 +825,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>16</v>
       </c>
@@ -886,7 +887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>16.5</v>
       </c>
@@ -948,7 +949,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>16</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>15.5</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>15.5</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>17.5</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>22</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>18.5</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15.5</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>14.5</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>15.5</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>19.5</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>17.5</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1946,17 +1947,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="12" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>140</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>145</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>105</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>115</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>160</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>180</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>145</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>175</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>175</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>190</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>190</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>205</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>220</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>205</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>165</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>185</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>190</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>105</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>105</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>190</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>195</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>160</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>140</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>160</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>155</v>
       </c>
@@ -3513,14 +3514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="11" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
@@ -3529,7 +3530,7 @@
     <col min="18" max="20" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>150</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>145</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>115</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>140</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>130</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>135</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>170</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>160</v>
       </c>
@@ -4025,7 +4026,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>170</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>155</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>160</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>165</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>150</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>220</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>155</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>160</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>180</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>160</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>130</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>155</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>210</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>180</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>165</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>140</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>155</v>
       </c>
@@ -5079,10 +5080,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N30" s="1"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I34" s="1"/>
     </row>
   </sheetData>
@@ -5092,19 +5093,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="20" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>145</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>165</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>145</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>120</v>
       </c>
@@ -5352,7 +5353,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>145</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>150</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>145</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>155</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>195</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>155</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>195</v>
       </c>
@@ -5786,7 +5787,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>175</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>150</v>
       </c>
@@ -5910,7 +5911,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>195</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>170</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>155</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>180</v>
       </c>
@@ -6158,7 +6159,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>150</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>180</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>155</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>145</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>170</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>135</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>145</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>140</v>
       </c>
